--- a/trunk/trunk/技术调查/agg.xlsx
+++ b/trunk/trunk/技术调查/agg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>q0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,19 @@
   </si>
   <si>
     <t>翻转的 agg::interactive_polygon 的8定点数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②</t>
+  </si>
+  <si>
+    <t>③</t>
+  </si>
+  <si>
+    <t>④</t>
+  </si>
+  <si>
+    <t>①</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,7 +1090,7 @@
   <dimension ref="I3:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -1131,7 +1144,6 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
@@ -1154,7 +1166,9 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
+      <c r="V7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
@@ -1171,7 +1185,9 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="O8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -1301,8 +1317,9 @@
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="V13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
@@ -1341,7 +1358,9 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="M15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -1364,7 +1383,6 @@
       <c r="I16" s="5"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>

--- a/trunk/trunk/技术调查/agg.xlsx
+++ b/trunk/trunk/技术调查/agg.xlsx
@@ -1090,7 +1090,7 @@
   <dimension ref="I3:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+      <selection activeCell="AQ24" sqref="AQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
